--- a/data/employees_departaments.xlsx
+++ b/data/employees_departaments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a98b9df9e97921/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DF75460589B3ACB7284F4CF5F666A5BDEDDAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F79ABF9C-00C2-43BF-9663-36CA18AAD0E3}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4DF75460589B3ACB7284F4CF5F666A5BDEDDAF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248C04BD-BBF1-497D-B232-B2C918423EBD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -34,19 +34,25 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Departament_ID</t>
-  </si>
-  <si>
-    <t>Departament ID</t>
-  </si>
-  <si>
-    <t>Departament_Name</t>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Operation_ID</t>
+  </si>
+  <si>
+    <t>Date_Assignet</t>
+  </si>
+  <si>
+    <t>Operation_Name</t>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>Operation_Start_Date</t>
+  </si>
+  <si>
+    <t>Operation_End_Date</t>
   </si>
 </sst>
 </file>
@@ -386,13 +392,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="I8:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="9:13" x14ac:dyDescent="0.25">
@@ -489,66 +499,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A89762-9A7B-4CE8-9A87-CD7DEDDDB483}">
-  <dimension ref="G3:H13"/>
+  <dimension ref="G3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
